--- a/stimuli/concreteness_denotation/3_phrases_2023-05-18.xlsx
+++ b/stimuli/concreteness_denotation/3_phrases_2023-05-18.xlsx
@@ -1,23 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\ownCloud\projects\FakeDiamond\stimuli\concreteness_denotation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanlaw/ownCloud - Ryan Law@cloud.mrc-cbu.cam.ac.uk/projects/FakeDiamond/stimuli/concreteness_denotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871C24EB-8762-7D47-9F7D-8B5EF4420696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$823</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$823</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2925,9 +2939,6 @@
     <t>current despair</t>
   </si>
   <si>
-    <t>false despair</t>
-  </si>
-  <si>
     <t>bxfjwts despair</t>
   </si>
   <si>
@@ -3756,9 +3767,6 @@
     <t>Is it to be disregarded?</t>
   </si>
   <si>
-    <t>Can one ignore it?</t>
-  </si>
-  <si>
     <t>Should it be neglected?</t>
   </si>
   <si>
@@ -3769,12 +3777,18 @@
   </si>
   <si>
     <t>Is it good in moderation?</t>
+  </si>
+  <si>
+    <t>fabricated despair</t>
+  </si>
+  <si>
+    <t>Is it to be prevented?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3843,7 +3857,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3919,9 +3933,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3959,9 +3973,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3996,7 +4010,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4031,7 +4045,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4204,21 +4218,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T823"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S823"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="16" max="16" width="9.140625" style="4"/>
-    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" style="4"/>
+    <col min="17" max="17" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4268,13 +4282,13 @@
         <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4326,12 +4340,8 @@
       <c r="Q2" t="s">
         <v>344</v>
       </c>
-      <c r="T2">
-        <f>COUNTIF(S2:S823,"yes")</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4383,12 +4393,8 @@
       <c r="Q3" t="s">
         <v>345</v>
       </c>
-      <c r="T3">
-        <f>COUNTIF(S2:S823,"no")</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4441,7 +4447,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4494,7 +4500,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4547,7 +4553,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4600,7 +4606,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4653,13 +4659,13 @@
         <v>350</v>
       </c>
       <c r="R8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="S8" t="s">
         <v>1090</v>
       </c>
-      <c r="S8" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4709,10 +4715,10 @@
         <v>338</v>
       </c>
       <c r="Q9" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4765,7 +4771,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4818,13 +4824,13 @@
         <v>352</v>
       </c>
       <c r="R11" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="S11" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4874,10 +4880,10 @@
         <v>319</v>
       </c>
       <c r="Q12" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4930,7 +4936,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4983,7 +4989,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5036,7 +5042,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5089,7 +5095,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5142,13 +5148,13 @@
         <v>357</v>
       </c>
       <c r="R17" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="S17" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5201,7 +5207,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5254,7 +5260,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5307,7 +5313,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5357,16 +5363,16 @@
         <v>307</v>
       </c>
       <c r="Q21" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R21" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="S21" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5419,7 +5425,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5472,7 +5478,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5525,7 +5531,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5578,7 +5584,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5631,7 +5637,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5684,7 +5690,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5737,7 +5743,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5790,7 +5796,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5840,10 +5846,10 @@
         <v>310</v>
       </c>
       <c r="Q30" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5896,13 +5902,13 @@
         <v>369</v>
       </c>
       <c r="R31" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="S31" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5955,7 +5961,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6008,7 +6014,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6061,7 +6067,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6114,7 +6120,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6167,7 +6173,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6220,7 +6226,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6273,7 +6279,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6326,7 +6332,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6379,7 +6385,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6432,7 +6438,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6485,7 +6491,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6538,7 +6544,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6591,7 +6597,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6641,16 +6647,16 @@
         <v>319</v>
       </c>
       <c r="Q45" t="s">
+        <v>1153</v>
+      </c>
+      <c r="R45" t="s">
         <v>1154</v>
       </c>
-      <c r="R45" t="s">
-        <v>1155</v>
-      </c>
       <c r="S45" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6703,7 +6709,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6756,7 +6762,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6809,7 +6815,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6862,7 +6868,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6915,7 +6921,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6965,16 +6971,16 @@
         <v>305</v>
       </c>
       <c r="Q51" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="R51" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="S51" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7027,13 +7033,13 @@
         <v>388</v>
       </c>
       <c r="R52" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="S52" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7086,7 +7092,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7139,7 +7145,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7192,7 +7198,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7245,7 +7251,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7298,7 +7304,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7351,7 +7357,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7404,13 +7410,13 @@
         <v>395</v>
       </c>
       <c r="R59" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="S59" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7463,7 +7469,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7516,13 +7522,13 @@
         <v>397</v>
       </c>
       <c r="R61" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="S61" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7575,7 +7581,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7628,7 +7634,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7681,7 +7687,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7734,7 +7740,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7787,7 +7793,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7840,7 +7846,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7890,10 +7896,10 @@
         <v>329</v>
       </c>
       <c r="Q68" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7943,16 +7949,16 @@
         <v>330</v>
       </c>
       <c r="Q69" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="R69" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="S69" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -8005,7 +8011,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -8058,7 +8064,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8111,7 +8117,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8164,7 +8170,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8217,7 +8223,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8270,7 +8276,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8323,13 +8329,13 @@
         <v>410</v>
       </c>
       <c r="R76" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="S76" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8382,7 +8388,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8435,7 +8441,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8488,13 +8494,13 @@
         <v>413</v>
       </c>
       <c r="R79" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="S79" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8547,7 +8553,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8600,7 +8606,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8653,7 +8659,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8703,10 +8709,10 @@
         <v>304</v>
       </c>
       <c r="Q83" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8756,10 +8762,10 @@
         <v>305</v>
       </c>
       <c r="Q84" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8812,7 +8818,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8865,7 +8871,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8915,10 +8921,10 @@
         <v>307</v>
       </c>
       <c r="Q87" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8971,7 +8977,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -9024,7 +9030,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -9077,7 +9083,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -9130,7 +9136,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -9183,7 +9189,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -9233,10 +9239,10 @@
         <v>340</v>
       </c>
       <c r="Q93" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -9289,7 +9295,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -9342,7 +9348,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9395,7 +9401,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9448,7 +9454,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9498,10 +9504,10 @@
         <v>304</v>
       </c>
       <c r="Q98" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9551,10 +9557,10 @@
         <v>342</v>
       </c>
       <c r="Q99" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9607,7 +9613,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9660,7 +9666,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9713,7 +9719,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9766,7 +9772,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9819,13 +9825,13 @@
         <v>432</v>
       </c>
       <c r="R104" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="S104" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9878,7 +9884,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9931,7 +9937,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -9984,7 +9990,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -10037,7 +10043,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -10090,7 +10096,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10143,7 +10149,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -10196,7 +10202,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -10249,7 +10255,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10302,7 +10308,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -10352,10 +10358,10 @@
         <v>340</v>
       </c>
       <c r="Q114" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -10408,7 +10414,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -10461,7 +10467,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -10511,16 +10517,16 @@
         <v>338</v>
       </c>
       <c r="Q117" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="R117" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S117" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -10573,7 +10579,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -10626,7 +10632,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -10679,7 +10685,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -10732,7 +10738,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -10785,7 +10791,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -10838,7 +10844,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -10891,7 +10897,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -10944,13 +10950,13 @@
         <v>451</v>
       </c>
       <c r="R125" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="S125" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -11003,7 +11009,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -11056,7 +11062,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -11109,7 +11115,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11162,7 +11168,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -11215,7 +11221,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -11268,7 +11274,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -11318,10 +11324,10 @@
         <v>310</v>
       </c>
       <c r="Q132" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -11374,7 +11380,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -11427,7 +11433,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -11480,7 +11486,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -11533,7 +11539,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -11583,10 +11589,10 @@
         <v>315</v>
       </c>
       <c r="Q137" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -11636,10 +11642,10 @@
         <v>314</v>
       </c>
       <c r="Q138" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -11692,7 +11698,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -11745,7 +11751,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -11798,7 +11804,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -11851,7 +11857,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -11904,7 +11910,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -11957,7 +11963,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -12010,13 +12016,13 @@
         <v>468</v>
       </c>
       <c r="R145" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="S145" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -12069,7 +12075,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -12122,7 +12128,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -12175,13 +12181,13 @@
         <v>471</v>
       </c>
       <c r="R148" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="S148" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -12234,7 +12240,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -12287,7 +12293,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -12340,7 +12346,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -12393,7 +12399,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -12446,7 +12452,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -12499,7 +12505,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -12552,7 +12558,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -12605,7 +12611,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -12658,7 +12664,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -12711,7 +12717,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -12764,7 +12770,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -12817,13 +12823,13 @@
         <v>483</v>
       </c>
       <c r="R160" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="S160" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -12876,7 +12882,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -12926,16 +12932,16 @@
         <v>307</v>
       </c>
       <c r="Q162" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="R162" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="S162" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -12988,7 +12994,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -13041,7 +13047,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -13094,7 +13100,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -13147,7 +13153,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -13197,10 +13203,10 @@
         <v>304</v>
       </c>
       <c r="Q167" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -13253,7 +13259,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -13306,7 +13312,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -13356,10 +13362,10 @@
         <v>298</v>
       </c>
       <c r="Q170" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -13409,10 +13415,10 @@
         <v>299</v>
       </c>
       <c r="Q171" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -13465,7 +13471,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -13518,7 +13524,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -13568,10 +13574,10 @@
         <v>299</v>
       </c>
       <c r="Q174" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -13624,7 +13630,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -13677,7 +13683,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -13730,7 +13736,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -13783,7 +13789,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -13836,7 +13842,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -13889,13 +13895,13 @@
         <v>498</v>
       </c>
       <c r="R180" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S180" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -13948,7 +13954,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -14001,7 +14007,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -14054,13 +14060,13 @@
         <v>501</v>
       </c>
       <c r="R183" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="S183" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -14113,7 +14119,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -14166,7 +14172,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -14219,7 +14225,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -14272,7 +14278,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -14325,7 +14331,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -14378,7 +14384,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -14431,7 +14437,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -14481,16 +14487,16 @@
         <v>309</v>
       </c>
       <c r="Q191" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="R191" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="S191" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -14543,7 +14549,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -14596,7 +14602,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -14646,16 +14652,16 @@
         <v>339</v>
       </c>
       <c r="Q194" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="R194" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="S194" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -14708,7 +14714,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -14761,7 +14767,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -14811,10 +14817,10 @@
         <v>324</v>
       </c>
       <c r="Q197" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -14867,7 +14873,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -14920,7 +14926,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -14970,16 +14976,16 @@
         <v>339</v>
       </c>
       <c r="Q200" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="R200" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="S200" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -15032,7 +15038,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -15085,7 +15091,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -15135,16 +15141,16 @@
         <v>313</v>
       </c>
       <c r="Q203" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="R203" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="S203" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -15197,7 +15203,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -15250,13 +15256,13 @@
         <v>518</v>
       </c>
       <c r="R205" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="S205" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -15309,7 +15315,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -15362,7 +15368,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -15415,7 +15421,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -15468,7 +15474,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -15521,7 +15527,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -15574,7 +15580,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -15627,7 +15633,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -15680,7 +15686,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -15733,13 +15739,13 @@
         <v>527</v>
       </c>
       <c r="R214" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="S214" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -15792,7 +15798,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -15845,7 +15851,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -15898,7 +15904,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -15951,7 +15957,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -16001,16 +16007,16 @@
         <v>307</v>
       </c>
       <c r="Q219" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="R219" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="S219" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -16063,7 +16069,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -16116,7 +16122,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -16168,14 +16174,8 @@
       <c r="Q222" t="s">
         <v>534</v>
       </c>
-      <c r="R222" t="s">
-        <v>1244</v>
-      </c>
-      <c r="S222" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -16331,10 +16331,10 @@
         <v>342</v>
       </c>
       <c r="Q225" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -16387,7 +16387,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -16437,10 +16437,10 @@
         <v>315</v>
       </c>
       <c r="Q227" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -16490,10 +16490,10 @@
         <v>305</v>
       </c>
       <c r="Q228" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -16546,7 +16546,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -16599,7 +16599,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -16755,10 +16755,10 @@
         <v>313</v>
       </c>
       <c r="Q233" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -16811,7 +16811,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -16917,7 +16917,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -16970,7 +16970,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -17023,7 +17023,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -17076,7 +17076,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -17182,13 +17182,13 @@
         <v>549</v>
       </c>
       <c r="R241" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="S241" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -17291,16 +17291,16 @@
         <v>316</v>
       </c>
       <c r="Q243" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="R243" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="S243" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -17353,7 +17353,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -17406,7 +17406,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -17512,7 +17512,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -17565,7 +17565,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -17618,7 +17618,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -17671,13 +17671,13 @@
         <v>557</v>
       </c>
       <c r="R250" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="S250" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -17889,7 +17889,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -17939,16 +17939,16 @@
         <v>338</v>
       </c>
       <c r="Q255" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="R255" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S255" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -18001,7 +18001,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -18160,7 +18160,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -18213,7 +18213,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -18266,7 +18266,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -18531,13 +18531,13 @@
         <v>572</v>
       </c>
       <c r="R266" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="S266" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -18590,7 +18590,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -18643,7 +18643,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -18696,7 +18696,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -18749,7 +18749,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -18802,7 +18802,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -18855,7 +18855,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -18961,7 +18961,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -19067,7 +19067,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -19120,7 +19120,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -19173,7 +19173,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -19279,7 +19279,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -19332,13 +19332,13 @@
         <v>587</v>
       </c>
       <c r="R281" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="S281" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -19391,7 +19391,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -19444,7 +19444,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -19497,7 +19497,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -19550,7 +19550,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -19603,7 +19603,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -19656,7 +19656,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -19709,7 +19709,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -19762,7 +19762,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -19815,7 +19815,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -19868,7 +19868,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -19921,7 +19921,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -19974,7 +19974,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -20027,7 +20027,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -20133,7 +20133,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -20186,7 +20186,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -20289,16 +20289,16 @@
         <v>304</v>
       </c>
       <c r="Q299" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="R299" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="S299" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -20351,7 +20351,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -20404,7 +20404,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -20454,16 +20454,16 @@
         <v>339</v>
       </c>
       <c r="Q302" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="R302" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="S302" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -20516,7 +20516,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -20569,7 +20569,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -20622,7 +20622,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -20675,7 +20675,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -20778,10 +20778,10 @@
         <v>341</v>
       </c>
       <c r="Q308" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -20834,7 +20834,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -20887,13 +20887,13 @@
         <v>613</v>
       </c>
       <c r="R310" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="S310" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -20946,7 +20946,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -20999,7 +20999,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -21052,7 +21052,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -21158,7 +21158,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -21211,7 +21211,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -21264,7 +21264,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -21317,7 +21317,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -21370,7 +21370,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -21423,7 +21423,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -21476,7 +21476,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -21529,13 +21529,13 @@
         <v>625</v>
       </c>
       <c r="R322" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="S322" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -21588,7 +21588,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -21641,7 +21641,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -21694,7 +21694,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -21747,7 +21747,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -21797,10 +21797,10 @@
         <v>310</v>
       </c>
       <c r="Q327" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -21853,7 +21853,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -21906,7 +21906,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -22012,13 +22012,13 @@
         <v>633</v>
       </c>
       <c r="R331" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="S331" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -22071,7 +22071,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -22124,7 +22124,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -22177,7 +22177,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -22230,7 +22230,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -22280,10 +22280,10 @@
         <v>325</v>
       </c>
       <c r="Q336" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -22336,7 +22336,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -22389,7 +22389,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -22442,7 +22442,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -22495,13 +22495,13 @@
         <v>641</v>
       </c>
       <c r="R340" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="S340" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -22554,7 +22554,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -22607,7 +22607,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -22660,7 +22660,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -22713,7 +22713,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -22763,10 +22763,10 @@
         <v>340</v>
       </c>
       <c r="Q345" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -22819,7 +22819,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -22872,7 +22872,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -22925,7 +22925,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -22978,7 +22978,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -23028,10 +23028,10 @@
         <v>304</v>
       </c>
       <c r="Q350" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -23081,16 +23081,16 @@
         <v>342</v>
       </c>
       <c r="Q351" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="R351" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="S351" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -23143,7 +23143,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -23196,7 +23196,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -23249,7 +23249,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -23302,7 +23302,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -23355,7 +23355,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -23408,7 +23408,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -23461,7 +23461,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -23514,7 +23514,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -23567,7 +23567,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -23620,7 +23620,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -23670,10 +23670,10 @@
         <v>329</v>
       </c>
       <c r="Q362" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="363" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -23726,7 +23726,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -23779,7 +23779,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -23832,7 +23832,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -23885,7 +23885,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -23938,7 +23938,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -23991,7 +23991,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -24041,10 +24041,10 @@
         <v>338</v>
       </c>
       <c r="Q369" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -24097,7 +24097,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -24150,7 +24150,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -24203,7 +24203,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -24256,7 +24256,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -24309,7 +24309,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -24362,7 +24362,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -24415,7 +24415,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -24468,13 +24468,13 @@
         <v>673</v>
       </c>
       <c r="R377" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S377" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="378" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -24524,16 +24524,16 @@
         <v>338</v>
       </c>
       <c r="Q378" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="R378" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="S378" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -24586,7 +24586,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -24639,7 +24639,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -24692,7 +24692,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -24745,7 +24745,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -24798,7 +24798,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -24851,7 +24851,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -24904,7 +24904,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -24957,7 +24957,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -25010,7 +25010,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -25063,7 +25063,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -25116,7 +25116,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -25169,7 +25169,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -25222,7 +25222,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -25275,7 +25275,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -25328,7 +25328,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -25381,7 +25381,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -25434,7 +25434,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -25484,16 +25484,16 @@
         <v>310</v>
       </c>
       <c r="Q396" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="R396" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="S396" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -25546,7 +25546,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -25599,7 +25599,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -25652,7 +25652,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -25705,7 +25705,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -25758,7 +25758,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -25808,10 +25808,10 @@
         <v>296</v>
       </c>
       <c r="Q402" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -25864,7 +25864,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -25917,7 +25917,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -25967,10 +25967,10 @@
         <v>338</v>
       </c>
       <c r="Q405" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -26023,7 +26023,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -26076,13 +26076,13 @@
         <v>699</v>
       </c>
       <c r="R407" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="S407" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="408" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -26135,7 +26135,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -26188,7 +26188,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -26238,16 +26238,16 @@
         <v>339</v>
       </c>
       <c r="Q410" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="R410" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="S410" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -26300,7 +26300,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -26353,7 +26353,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -26406,7 +26406,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -26459,7 +26459,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -26512,7 +26512,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -26565,7 +26565,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -26618,7 +26618,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -26671,7 +26671,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -26724,7 +26724,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -26777,7 +26777,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -26830,13 +26830,13 @@
         <v>712</v>
       </c>
       <c r="R421" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="S421" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="422" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -26889,7 +26889,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -26942,7 +26942,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -26995,7 +26995,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -27048,7 +27048,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -27101,7 +27101,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -27154,7 +27154,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -27207,7 +27207,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -27257,10 +27257,10 @@
         <v>330</v>
       </c>
       <c r="Q429" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -27313,7 +27313,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -27366,7 +27366,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -27419,7 +27419,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -27472,7 +27472,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -27578,7 +27578,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -27631,7 +27631,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -27684,7 +27684,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -27737,7 +27737,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -27790,7 +27790,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -27843,7 +27843,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -27896,7 +27896,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -27949,7 +27949,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -28002,7 +28002,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -28052,10 +28052,10 @@
         <v>342</v>
       </c>
       <c r="Q444" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="445" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -28108,7 +28108,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -28161,7 +28161,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -28214,7 +28214,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -28267,7 +28267,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -28320,7 +28320,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -28373,7 +28373,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -28426,7 +28426,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -28479,7 +28479,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -28532,7 +28532,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -28585,7 +28585,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -28638,7 +28638,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -28688,16 +28688,16 @@
         <v>305</v>
       </c>
       <c r="Q456" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="R456" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="S456" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="457" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -28750,7 +28750,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -28803,7 +28803,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -28856,7 +28856,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -28909,7 +28909,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -28962,7 +28962,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -29015,7 +29015,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -29068,7 +29068,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -29121,7 +29121,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -29174,7 +29174,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -29227,7 +29227,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -29280,7 +29280,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -29333,7 +29333,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -29386,7 +29386,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -29439,13 +29439,13 @@
         <v>758</v>
       </c>
       <c r="R470" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="S470" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -29498,7 +29498,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -29551,7 +29551,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -29604,7 +29604,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -29657,7 +29657,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -29710,7 +29710,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -29763,7 +29763,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -29869,7 +29869,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -29919,10 +29919,10 @@
         <v>329</v>
       </c>
       <c r="Q479" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="480" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -29975,7 +29975,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -30028,7 +30028,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -30081,7 +30081,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -30134,7 +30134,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -30187,7 +30187,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -30240,7 +30240,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -30346,7 +30346,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -30399,7 +30399,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -30452,7 +30452,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -30505,7 +30505,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -30558,7 +30558,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -30611,7 +30611,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -30664,7 +30664,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -30717,7 +30717,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -30767,10 +30767,10 @@
         <v>296</v>
       </c>
       <c r="Q495" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="496" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -30823,7 +30823,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -30876,7 +30876,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -30926,10 +30926,10 @@
         <v>296</v>
       </c>
       <c r="Q498" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -30982,7 +30982,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -31035,7 +31035,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -31088,7 +31088,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -31141,7 +31141,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -31194,7 +31194,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -31247,7 +31247,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -31300,7 +31300,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -31353,13 +31353,13 @@
         <v>791</v>
       </c>
       <c r="R506" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="S506" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -31412,7 +31412,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -31465,7 +31465,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -31518,7 +31518,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -31571,7 +31571,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -31624,7 +31624,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -31677,7 +31677,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -31730,7 +31730,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -31783,7 +31783,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -31836,7 +31836,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -31889,7 +31889,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -31942,7 +31942,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -31995,7 +31995,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -32048,7 +32048,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -32101,13 +32101,13 @@
         <v>805</v>
       </c>
       <c r="R520" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="S520" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -32160,7 +32160,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -32213,7 +32213,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -32266,7 +32266,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -32319,7 +32319,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -32372,7 +32372,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -32425,7 +32425,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -32478,7 +32478,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -32531,7 +32531,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -32584,7 +32584,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -32637,7 +32637,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -32690,7 +32690,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -32743,7 +32743,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -32796,7 +32796,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -32849,7 +32849,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -32902,7 +32902,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -32955,7 +32955,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -33008,7 +33008,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -33061,7 +33061,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -33114,7 +33114,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -33167,7 +33167,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -33220,13 +33220,13 @@
         <v>826</v>
       </c>
       <c r="R541" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="S541" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="542" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -33279,7 +33279,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -33332,7 +33332,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -33385,7 +33385,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -33438,7 +33438,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="546" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -33491,7 +33491,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="547" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -33544,7 +33544,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -33597,13 +33597,13 @@
         <v>833</v>
       </c>
       <c r="R548" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="S548" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="549" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -33656,7 +33656,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -33709,7 +33709,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -33762,7 +33762,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -33815,7 +33815,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -33868,7 +33868,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -33918,16 +33918,16 @@
         <v>313</v>
       </c>
       <c r="Q554" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="R554" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="S554" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="555" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="555" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -33980,7 +33980,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -34033,7 +34033,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -34086,7 +34086,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -34139,7 +34139,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -34192,7 +34192,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -34245,7 +34245,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -34298,7 +34298,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -34351,7 +34351,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -34404,7 +34404,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -34457,7 +34457,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -34510,7 +34510,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -34563,7 +34563,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -34616,7 +34616,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -34669,7 +34669,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -34722,7 +34722,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -34775,7 +34775,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -34828,7 +34828,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -34881,7 +34881,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -34934,7 +34934,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -34987,13 +34987,13 @@
         <v>858</v>
       </c>
       <c r="R574" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="S574" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="575" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -35046,7 +35046,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -35096,16 +35096,16 @@
         <v>310</v>
       </c>
       <c r="Q576" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="R576" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="S576" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="577" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="577" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -35158,7 +35158,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="578" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -35211,7 +35211,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="579" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -35264,7 +35264,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="580" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -35317,7 +35317,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="581" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -35370,7 +35370,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="582" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -35423,7 +35423,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="583" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -35476,13 +35476,13 @@
         <v>866</v>
       </c>
       <c r="R583" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="S583" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="584" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="584" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -35535,7 +35535,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="585" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -35588,7 +35588,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -35641,7 +35641,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="587" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -35694,7 +35694,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="588" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -35747,7 +35747,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="589" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -35800,7 +35800,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="590" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -35853,7 +35853,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="591" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -35906,7 +35906,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="592" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -35959,7 +35959,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="593" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -36012,7 +36012,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="594" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -36065,7 +36065,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="595" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -36118,7 +36118,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="596" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -36171,7 +36171,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="597" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -36224,7 +36224,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="598" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -36277,7 +36277,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="599" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -36330,7 +36330,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="600" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -36383,7 +36383,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="601" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -36436,7 +36436,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="602" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -36489,7 +36489,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="603" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -36542,7 +36542,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="604" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -36595,7 +36595,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="605" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -36648,7 +36648,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="606" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -36701,7 +36701,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="607" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -36754,7 +36754,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="608" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -36807,7 +36807,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="609" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -36860,7 +36860,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="610" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -36913,7 +36913,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="611" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -36966,7 +36966,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="612" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -37019,7 +37019,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="613" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -37072,7 +37072,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="614" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -37125,7 +37125,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="615" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -37178,7 +37178,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="616" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -37231,13 +37231,13 @@
         <v>899</v>
       </c>
       <c r="R616" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="S616" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="617" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="617" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -37290,7 +37290,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="618" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -37343,7 +37343,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="619" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -37396,7 +37396,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="620" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -37449,7 +37449,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="621" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -37502,7 +37502,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="622" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -37555,13 +37555,13 @@
         <v>905</v>
       </c>
       <c r="R622" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S622" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="623" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="623" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -37614,7 +37614,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="624" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -37667,7 +37667,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="625" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -37720,7 +37720,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="626" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -37773,7 +37773,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="627" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -37826,7 +37826,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="628" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -37879,7 +37879,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="629" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -37932,7 +37932,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="630" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -37982,16 +37982,16 @@
         <v>310</v>
       </c>
       <c r="Q630" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="R630" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="S630" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="631" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="631" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -38044,7 +38044,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="632" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -38097,7 +38097,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="633" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -38150,7 +38150,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="634" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -38203,7 +38203,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="635" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -38256,7 +38256,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="636" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -38309,7 +38309,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="637" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -38362,7 +38362,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="638" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -38412,16 +38412,16 @@
         <v>313</v>
       </c>
       <c r="Q638" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="R638" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="S638" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="639" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="639" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -38474,7 +38474,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="640" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -38527,7 +38527,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="641" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -38580,7 +38580,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="642" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -38633,7 +38633,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="643" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -38686,7 +38686,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="644" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -38739,7 +38739,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="645" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -38792,7 +38792,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="646" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -38845,7 +38845,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="647" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -38898,7 +38898,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="648" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -38951,7 +38951,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="649" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -39004,7 +39004,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="650" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -39057,7 +39057,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="651" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -39110,7 +39110,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="652" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -39163,7 +39163,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="653" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -39216,7 +39216,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="654" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -39269,7 +39269,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="655" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -39322,7 +39322,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="656" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -39375,7 +39375,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="657" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -39428,7 +39428,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="658" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -39481,7 +39481,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="659" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -39534,7 +39534,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="660" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -39587,7 +39587,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="661" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -39640,7 +39640,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="662" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -39690,10 +39690,10 @@
         <v>304</v>
       </c>
       <c r="Q662" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="663" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="663" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -39743,10 +39743,10 @@
         <v>342</v>
       </c>
       <c r="Q663" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="664" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="664" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -39799,7 +39799,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="665" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -39852,7 +39852,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="666" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -39905,7 +39905,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="667" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -39958,7 +39958,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="668" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -40011,7 +40011,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="669" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -40064,7 +40064,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="670" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -40117,7 +40117,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="671" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -40170,7 +40170,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="672" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -40223,7 +40223,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="673" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -40276,7 +40276,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="674" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -40329,7 +40329,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="675" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -40379,16 +40379,16 @@
         <v>305</v>
       </c>
       <c r="Q675" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="R675" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="S675" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="676" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="676" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -40441,7 +40441,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="677" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -40494,7 +40494,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="678" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -40547,7 +40547,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="679" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -40600,7 +40600,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="680" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -40653,13 +40653,13 @@
         <v>958</v>
       </c>
       <c r="R680" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="S680" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="681" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="681" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -40712,7 +40712,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="682" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -40765,7 +40765,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="683" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -40818,7 +40818,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="684" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -40871,7 +40871,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="685" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -40924,7 +40924,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="686" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -40977,7 +40977,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="687" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -41027,10 +41027,10 @@
         <v>305</v>
       </c>
       <c r="Q687" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="688" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="688" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -41083,7 +41083,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="689" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -41136,7 +41136,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="690" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -41183,13 +41183,19 @@
         <v>293</v>
       </c>
       <c r="P690" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q690" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="691" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+      <c r="R690" t="s">
+        <v>1248</v>
+      </c>
+      <c r="S690" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="691" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -41239,10 +41245,10 @@
         <v>333</v>
       </c>
       <c r="Q691" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="692" spans="1:19" x14ac:dyDescent="0.25">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="692" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -41292,10 +41298,10 @@
         <v>315</v>
       </c>
       <c r="Q692" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="693" spans="1:19" x14ac:dyDescent="0.25">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="693" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -41345,10 +41351,10 @@
         <v>316</v>
       </c>
       <c r="Q693" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="694" spans="1:19" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="694" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -41398,10 +41404,10 @@
         <v>320</v>
       </c>
       <c r="Q694" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="695" spans="1:19" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="695" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -41451,10 +41457,10 @@
         <v>306</v>
       </c>
       <c r="Q695" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="696" spans="1:19" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="696" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -41504,16 +41510,16 @@
         <v>299</v>
       </c>
       <c r="Q696" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="R696" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="S696" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="697" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="697" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -41563,10 +41569,10 @@
         <v>320</v>
       </c>
       <c r="Q697" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="698" spans="1:19" x14ac:dyDescent="0.25">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="698" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -41616,10 +41622,10 @@
         <v>337</v>
       </c>
       <c r="Q698" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="699" spans="1:19" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="699" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -41669,10 +41675,10 @@
         <v>338</v>
       </c>
       <c r="Q699" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="700" spans="1:19" x14ac:dyDescent="0.25">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="700" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -41722,10 +41728,10 @@
         <v>333</v>
       </c>
       <c r="Q700" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="701" spans="1:19" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="701" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -41775,10 +41781,10 @@
         <v>298</v>
       </c>
       <c r="Q701" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="702" spans="1:19" x14ac:dyDescent="0.25">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="702" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -41828,10 +41834,10 @@
         <v>299</v>
       </c>
       <c r="Q702" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="703" spans="1:19" x14ac:dyDescent="0.25">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="703" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -41881,10 +41887,10 @@
         <v>308</v>
       </c>
       <c r="Q703" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="704" spans="1:19" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="704" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -41934,10 +41940,10 @@
         <v>331</v>
       </c>
       <c r="Q704" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="705" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -41987,10 +41993,10 @@
         <v>319</v>
       </c>
       <c r="Q705" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="706" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -42040,10 +42046,10 @@
         <v>343</v>
       </c>
       <c r="Q706" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.25">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="707" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -42093,10 +42099,10 @@
         <v>304</v>
       </c>
       <c r="Q707" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.25">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="708" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -42146,10 +42152,10 @@
         <v>305</v>
       </c>
       <c r="Q708" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.25">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="709" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -42199,10 +42205,10 @@
         <v>323</v>
       </c>
       <c r="Q709" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.25">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="710" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -42252,10 +42258,10 @@
         <v>304</v>
       </c>
       <c r="Q710" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.25">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="711" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -42305,10 +42311,10 @@
         <v>305</v>
       </c>
       <c r="Q711" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="712" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -42358,10 +42364,10 @@
         <v>328</v>
       </c>
       <c r="Q712" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.25">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="713" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -42411,10 +42417,10 @@
         <v>318</v>
       </c>
       <c r="Q713" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.25">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="714" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -42464,16 +42470,16 @@
         <v>314</v>
       </c>
       <c r="Q714" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="R714" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S714" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="715" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -42523,10 +42529,10 @@
         <v>297</v>
       </c>
       <c r="Q715" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.25">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="716" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -42576,10 +42582,10 @@
         <v>331</v>
       </c>
       <c r="Q716" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.25">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="717" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -42629,10 +42635,10 @@
         <v>332</v>
       </c>
       <c r="Q717" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="718" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -42682,10 +42688,10 @@
         <v>312</v>
       </c>
       <c r="Q718" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.25">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="719" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -42735,10 +42741,10 @@
         <v>339</v>
       </c>
       <c r="Q719" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="720" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -42788,10 +42794,10 @@
         <v>340</v>
       </c>
       <c r="Q720" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="721" spans="1:19" x14ac:dyDescent="0.25">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="721" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -42841,10 +42847,10 @@
         <v>335</v>
       </c>
       <c r="Q721" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="722" spans="1:19" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="722" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -42894,10 +42900,10 @@
         <v>331</v>
       </c>
       <c r="Q722" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="723" spans="1:19" x14ac:dyDescent="0.25">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="723" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -42947,10 +42953,10 @@
         <v>332</v>
       </c>
       <c r="Q723" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="724" spans="1:19" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="724" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -43000,10 +43006,10 @@
         <v>328</v>
       </c>
       <c r="Q724" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="725" spans="1:19" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="725" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -43053,10 +43059,10 @@
         <v>302</v>
       </c>
       <c r="Q725" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="726" spans="1:19" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="726" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -43106,10 +43112,10 @@
         <v>303</v>
       </c>
       <c r="Q726" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="727" spans="1:19" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="727" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -43159,10 +43165,10 @@
         <v>317</v>
       </c>
       <c r="Q727" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="728" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="728" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -43212,10 +43218,10 @@
         <v>326</v>
       </c>
       <c r="Q728" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="729" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="729" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -43265,10 +43271,10 @@
         <v>307</v>
       </c>
       <c r="Q729" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="730" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="730" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -43318,10 +43324,10 @@
         <v>333</v>
       </c>
       <c r="Q730" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="731" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="731" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -43371,10 +43377,10 @@
         <v>324</v>
       </c>
       <c r="Q731" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="732" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="732" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -43424,16 +43430,16 @@
         <v>338</v>
       </c>
       <c r="Q732" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="R732" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="S732" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="733" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="733" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -43483,10 +43489,10 @@
         <v>322</v>
       </c>
       <c r="Q733" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="734" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="734" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -43536,10 +43542,10 @@
         <v>304</v>
       </c>
       <c r="Q734" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="735" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="735" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -43589,10 +43595,10 @@
         <v>305</v>
       </c>
       <c r="Q735" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="736" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="736" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -43642,10 +43648,10 @@
         <v>336</v>
       </c>
       <c r="Q736" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="737" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="737" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -43695,10 +43701,10 @@
         <v>339</v>
       </c>
       <c r="Q737" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="738" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="738" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -43748,10 +43754,10 @@
         <v>340</v>
       </c>
       <c r="Q738" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="739" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="739" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -43801,16 +43807,16 @@
         <v>334</v>
       </c>
       <c r="Q739" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="R739" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="S739" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="740" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="740" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -43860,10 +43866,10 @@
         <v>295</v>
       </c>
       <c r="Q740" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="741" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="741" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -43913,10 +43919,10 @@
         <v>296</v>
       </c>
       <c r="Q741" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="742" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="742" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -43966,10 +43972,10 @@
         <v>328</v>
       </c>
       <c r="Q742" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="743" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="743" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -44019,10 +44025,10 @@
         <v>304</v>
       </c>
       <c r="Q743" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="744" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="744" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -44072,16 +44078,16 @@
         <v>307</v>
       </c>
       <c r="Q744" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R744" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S744" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="745" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="745" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>743</v>
       </c>
@@ -44131,10 +44137,10 @@
         <v>297</v>
       </c>
       <c r="Q745" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="746" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="746" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -44184,16 +44190,16 @@
         <v>329</v>
       </c>
       <c r="Q746" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="R746" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="S746" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="747" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="747" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -44243,10 +44249,10 @@
         <v>330</v>
       </c>
       <c r="Q747" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="748" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="748" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -44296,10 +44302,10 @@
         <v>323</v>
       </c>
       <c r="Q748" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="749" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="749" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -44349,10 +44355,10 @@
         <v>339</v>
       </c>
       <c r="Q749" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="750" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="750" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -44402,10 +44408,10 @@
         <v>340</v>
       </c>
       <c r="Q750" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="751" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="751" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -44455,16 +44461,16 @@
         <v>301</v>
       </c>
       <c r="Q751" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="R751" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="S751" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="752" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="752" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -44514,10 +44520,10 @@
         <v>315</v>
       </c>
       <c r="Q752" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="753" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="753" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -44567,10 +44573,10 @@
         <v>316</v>
       </c>
       <c r="Q753" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="754" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="754" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -44620,10 +44626,10 @@
         <v>328</v>
       </c>
       <c r="Q754" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="755" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="755" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -44673,16 +44679,16 @@
         <v>298</v>
       </c>
       <c r="Q755" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="R755" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="S755" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="756" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="756" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -44732,10 +44738,10 @@
         <v>299</v>
       </c>
       <c r="Q756" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="757" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="757" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -44785,10 +44791,10 @@
         <v>323</v>
       </c>
       <c r="Q757" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="758" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="758" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -44838,10 +44844,10 @@
         <v>315</v>
       </c>
       <c r="Q758" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="759" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="759" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -44891,10 +44897,10 @@
         <v>316</v>
       </c>
       <c r="Q759" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="760" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="760" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -44944,10 +44950,10 @@
         <v>322</v>
       </c>
       <c r="Q760" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="761" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="761" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -44997,10 +45003,10 @@
         <v>331</v>
       </c>
       <c r="Q761" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="762" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="762" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -45050,10 +45056,10 @@
         <v>332</v>
       </c>
       <c r="Q762" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="763" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="763" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -45103,16 +45109,16 @@
         <v>335</v>
       </c>
       <c r="Q763" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="R763" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="S763" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="764" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="764" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -45162,10 +45168,10 @@
         <v>337</v>
       </c>
       <c r="Q764" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="765" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="765" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -45215,10 +45221,10 @@
         <v>338</v>
       </c>
       <c r="Q765" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="766" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="766" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -45268,10 +45274,10 @@
         <v>300</v>
       </c>
       <c r="Q766" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="767" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="767" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -45321,16 +45327,16 @@
         <v>324</v>
       </c>
       <c r="Q767" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="R767" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="S767" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="768" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="768" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -45380,10 +45386,10 @@
         <v>338</v>
       </c>
       <c r="Q768" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="769" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="769" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -45433,10 +45439,10 @@
         <v>321</v>
       </c>
       <c r="Q769" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="770" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="770" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -45486,10 +45492,10 @@
         <v>304</v>
       </c>
       <c r="Q770" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="771" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="771" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -45539,16 +45545,16 @@
         <v>305</v>
       </c>
       <c r="Q771" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R771" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="S771" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="772" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="772" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -45598,10 +45604,10 @@
         <v>317</v>
       </c>
       <c r="Q772" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="773" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="773" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -45651,10 +45657,10 @@
         <v>309</v>
       </c>
       <c r="Q773" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="774" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="774" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -45704,16 +45710,16 @@
         <v>310</v>
       </c>
       <c r="Q774" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="R774" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="S774" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="775" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="775" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -45763,10 +45769,10 @@
         <v>317</v>
       </c>
       <c r="Q775" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="776" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="776" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -45816,10 +45822,10 @@
         <v>313</v>
       </c>
       <c r="Q776" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="777" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="777" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -45869,10 +45875,10 @@
         <v>314</v>
       </c>
       <c r="Q777" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="778" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="778" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -45922,10 +45928,10 @@
         <v>334</v>
       </c>
       <c r="Q778" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="779" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="779" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -45975,16 +45981,16 @@
         <v>341</v>
       </c>
       <c r="Q779" t="s">
+        <v>1229</v>
+      </c>
+      <c r="R779" t="s">
         <v>1230</v>
       </c>
-      <c r="R779" t="s">
-        <v>1231</v>
-      </c>
       <c r="S779" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="780" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="780" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -46034,10 +46040,10 @@
         <v>330</v>
       </c>
       <c r="Q780" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="781" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="781" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -46087,10 +46093,10 @@
         <v>335</v>
       </c>
       <c r="Q781" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="782" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="782" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -46140,10 +46146,10 @@
         <v>341</v>
       </c>
       <c r="Q782" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="783" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="783" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -46193,10 +46199,10 @@
         <v>342</v>
       </c>
       <c r="Q783" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="784" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="784" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -46246,10 +46252,10 @@
         <v>323</v>
       </c>
       <c r="Q784" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="785" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="785" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <v>783</v>
       </c>
@@ -46299,10 +46305,10 @@
         <v>339</v>
       </c>
       <c r="Q785" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="786" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="786" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -46352,10 +46358,10 @@
         <v>340</v>
       </c>
       <c r="Q786" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="787" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="787" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <v>785</v>
       </c>
@@ -46405,10 +46411,10 @@
         <v>321</v>
       </c>
       <c r="Q787" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="788" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="788" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <v>786</v>
       </c>
@@ -46458,10 +46464,10 @@
         <v>315</v>
       </c>
       <c r="Q788" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="789" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="789" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -46511,10 +46517,10 @@
         <v>316</v>
       </c>
       <c r="Q789" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="790" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="790" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>788</v>
       </c>
@@ -46564,16 +46570,16 @@
         <v>335</v>
       </c>
       <c r="Q790" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="R790" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="S790" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="791" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="791" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -46623,10 +46629,10 @@
         <v>306</v>
       </c>
       <c r="Q791" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="792" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="792" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -46676,10 +46682,10 @@
         <v>307</v>
       </c>
       <c r="Q792" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="793" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="793" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>791</v>
       </c>
@@ -46729,16 +46735,16 @@
         <v>312</v>
       </c>
       <c r="Q793" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="R793" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="S793" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="794" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="794" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -46788,10 +46794,10 @@
         <v>295</v>
       </c>
       <c r="Q794" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="795" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="795" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
         <v>793</v>
       </c>
@@ -46841,16 +46847,16 @@
         <v>296</v>
       </c>
       <c r="Q795" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="R795" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="S795" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="796" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="796" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>794</v>
       </c>
@@ -46900,10 +46906,10 @@
         <v>300</v>
       </c>
       <c r="Q796" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="797" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="797" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>795</v>
       </c>
@@ -46953,10 +46959,10 @@
         <v>324</v>
       </c>
       <c r="Q797" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="798" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="798" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>796</v>
       </c>
@@ -47006,16 +47012,16 @@
         <v>340</v>
       </c>
       <c r="Q798" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="R798" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="S798" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="799" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="799" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>797</v>
       </c>
@@ -47065,10 +47071,10 @@
         <v>297</v>
       </c>
       <c r="Q799" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="800" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="800" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>798</v>
       </c>
@@ -47118,10 +47124,10 @@
         <v>295</v>
       </c>
       <c r="Q800" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="801" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="801" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
         <v>799</v>
       </c>
@@ -47171,16 +47177,16 @@
         <v>305</v>
       </c>
       <c r="Q801" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="R801" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S801" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="802" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="802" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
         <v>800</v>
       </c>
@@ -47230,10 +47236,10 @@
         <v>322</v>
       </c>
       <c r="Q802" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="803" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="803" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
         <v>801</v>
       </c>
@@ -47283,16 +47289,16 @@
         <v>337</v>
       </c>
       <c r="Q803" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="R803" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="S803" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="804" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="804" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
         <v>802</v>
       </c>
@@ -47342,10 +47348,10 @@
         <v>319</v>
       </c>
       <c r="Q804" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="805" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="805" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
         <v>803</v>
       </c>
@@ -47395,10 +47401,10 @@
         <v>343</v>
       </c>
       <c r="Q805" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="806" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="806" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
         <v>804</v>
       </c>
@@ -47448,10 +47454,10 @@
         <v>318</v>
       </c>
       <c r="Q806" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="807" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="807" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
         <v>805</v>
       </c>
@@ -47501,10 +47507,10 @@
         <v>319</v>
       </c>
       <c r="Q807" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="808" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="808" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
         <v>806</v>
       </c>
@@ -47554,10 +47560,10 @@
         <v>312</v>
       </c>
       <c r="Q808" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="809" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="809" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
         <v>807</v>
       </c>
@@ -47607,10 +47613,10 @@
         <v>298</v>
       </c>
       <c r="Q809" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="810" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="810" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
         <v>808</v>
       </c>
@@ -47660,10 +47666,10 @@
         <v>299</v>
       </c>
       <c r="Q810" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="811" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="811" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
         <v>809</v>
       </c>
@@ -47713,10 +47719,10 @@
         <v>311</v>
       </c>
       <c r="Q811" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="812" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="812" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
         <v>810</v>
       </c>
@@ -47766,10 +47772,10 @@
         <v>313</v>
       </c>
       <c r="Q812" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="813" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="813" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
         <v>811</v>
       </c>
@@ -47819,10 +47825,10 @@
         <v>314</v>
       </c>
       <c r="Q813" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="814" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="814" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
         <v>812</v>
       </c>
@@ -47872,10 +47878,10 @@
         <v>312</v>
       </c>
       <c r="Q814" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="815" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="815" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
         <v>813</v>
       </c>
@@ -47925,10 +47931,10 @@
         <v>339</v>
       </c>
       <c r="Q815" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="816" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="816" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
         <v>814</v>
       </c>
@@ -47978,10 +47984,10 @@
         <v>340</v>
       </c>
       <c r="Q816" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="817" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="817" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
         <v>815</v>
       </c>
@@ -48031,10 +48037,10 @@
         <v>343</v>
       </c>
       <c r="Q817" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="818" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="818" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
         <v>816</v>
       </c>
@@ -48084,10 +48090,10 @@
         <v>324</v>
       </c>
       <c r="Q818" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="819" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="819" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
         <v>817</v>
       </c>
@@ -48137,10 +48143,10 @@
         <v>325</v>
       </c>
       <c r="Q819" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="820" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="820" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
         <v>818</v>
       </c>
@@ -48190,10 +48196,10 @@
         <v>336</v>
       </c>
       <c r="Q820" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="821" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="821" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
         <v>819</v>
       </c>
@@ -48243,10 +48249,10 @@
         <v>295</v>
       </c>
       <c r="Q821" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="822" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="822" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
         <v>820</v>
       </c>
@@ -48296,10 +48302,10 @@
         <v>296</v>
       </c>
       <c r="Q822" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="823" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="823" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
         <v>821</v>
       </c>
@@ -48349,11 +48355,15 @@
         <v>320</v>
       </c>
       <c r="Q823" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T823"/>
+  <autoFilter ref="A1:S823" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S823">
+      <sortCondition ref="A1:A823"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="R255:S255">
     <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",R255)))</formula>
